--- a/duomenys/Book 2.xlsx
+++ b/duomenys/Book 2.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24302"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D8A1D5-12A1-4291-9025-04D909569A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://finejas-my.sharepoint.com/personal/saulius_sinusas_finejas_lt/Documents/Code/Finejas-Driver-info-conversion/duomenys/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{E3D8A1D5-12A1-4291-9025-04D909569A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FD76F0-2B73-4BDA-AB82-2E21891CE594}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23235" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
     <t>Имя пользователя</t>
   </si>
@@ -79,12 +73,6 @@
     <t>aliaksandrkuzmiankou</t>
   </si>
   <si>
-    <t xml:space="preserve">ALIAKSANDR </t>
-  </si>
-  <si>
-    <t>KUZMIANKOU</t>
-  </si>
-  <si>
     <t>LINA</t>
   </si>
   <si>
@@ -136,15 +124,6 @@
     <t>Erika</t>
   </si>
   <si>
-    <t xml:space="preserve">yevhenkaplii </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yevhen  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaplii </t>
-  </si>
-  <si>
     <t>borysk</t>
   </si>
   <si>
@@ -250,9 +229,6 @@
     <t>ANDREI</t>
   </si>
   <si>
-    <t>MAKSIMAU</t>
-  </si>
-  <si>
     <t>andreiza</t>
   </si>
   <si>
@@ -286,9 +262,6 @@
     <t>FILIP</t>
   </si>
   <si>
-    <t>BAYANDIN</t>
-  </si>
-  <si>
     <t>valeriigo</t>
   </si>
   <si>
@@ -304,17 +277,41 @@
     <t>andreiro</t>
   </si>
   <si>
-    <t xml:space="preserve">ANDREI </t>
-  </si>
-  <si>
     <t>ROHACH</t>
+  </si>
+  <si>
+    <t>Kaplii</t>
+  </si>
+  <si>
+    <t>ALIAKSANDR</t>
+  </si>
+  <si>
+    <t>yevhenkaplii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yevhen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MAKSIMAU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAYANDIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oleksandr  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       KUZMIANKOU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1531,10 +1528,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1546,7 +1543,7 @@
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1606,120 +1603,120 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>14</v>
@@ -1728,24 +1725,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>14</v>
@@ -1754,22 +1751,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>14</v>
@@ -1778,345 +1775,345 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F23" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>83</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="29"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="33" t="s">
-        <v>90</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>9</v>
@@ -2138,18 +2135,18 @@
       </c>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>12</v>
@@ -2158,7 +2155,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" s="36"/>
     </row>
